--- a/1document/Art Request.xlsx
+++ b/1document/Art Request.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E3CF48B-BACB-4786-992D-6A7612E14C50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="游戏要素" sheetId="2" r:id="rId1"/>
@@ -13,13 +14,14 @@
     <sheet name="暂停" sheetId="4" r:id="rId4"/>
     <sheet name="死亡" sheetId="5" r:id="rId5"/>
     <sheet name="游戏主界面" sheetId="6" r:id="rId6"/>
+    <sheet name="action" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,22 +88,62 @@
   <si>
     <t>草莓香蕉!A1</t>
   </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,17 +159,23 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -387,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,26 +452,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,11 +464,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,10 +482,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -484,7 +544,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -522,7 +588,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -565,7 +637,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -619,7 +697,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="肘形连接符 4"/>
+        <xdr:cNvPr id="5" name="肘形连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -667,7 +751,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7"/>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -716,7 +806,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -765,7 +861,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvPr id="13" name="直接连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -814,7 +916,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -863,7 +971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接连接符 14"/>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -912,7 +1026,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvPr id="16" name="直接连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -961,7 +1081,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接连接符 16"/>
+        <xdr:cNvPr id="17" name="直接连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1010,7 +1136,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接连接符 17"/>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1059,7 +1191,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接连接符 18"/>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1108,7 +1246,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="文本框 19"/>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1174,7 +1318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="文本框 20"/>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1245,7 +1395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1299,7 +1455,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1358,7 +1520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1396,7 +1564,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1434,7 +1608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1472,7 +1652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1516,7 +1702,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="椭圆 12"/>
+        <xdr:cNvPr id="13" name="椭圆 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1575,7 +1767,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1629,7 +1827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1691,7 +1895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1734,7 +1944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1788,7 +2004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1846,7 +2068,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,7 +2128,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1954,7 +2188,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvPr id="13" name="直接连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -2005,7 +2245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接连接符 13"/>
+        <xdr:cNvPr id="14" name="直接连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2054,7 +2300,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接连接符 18"/>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2098,7 +2350,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvPr id="22" name="直接连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2147,7 +2405,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvPr id="23" name="直接连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2196,7 +2460,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接连接符 24"/>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2245,7 +2515,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2299,7 +2575,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2352,8 +2634,403 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>214356</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1299913" cy="1638040"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB53594-3ED8-4275-8FA6-39FF84E40A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1535156" y="298450"/>
+          <a:ext cx="1299913" cy="1638040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177763</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1311130" cy="1482519"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47DFC36-4792-4F24-B479-C910F63C5A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2158963" y="355600"/>
+          <a:ext cx="1311130" cy="1482519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78490</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1504702" cy="1511936"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808646F5-CD13-4C2F-96BD-7D3F0B4684EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="434090"/>
+          <a:ext cx="1504702" cy="1511936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88346</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1066801" cy="1345097"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104493B7-F2AC-49A7-92B4-B31C4BBFCC2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733549" y="621746"/>
+          <a:ext cx="1066801" cy="1345097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39181</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1307876" cy="1586148"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43BE950-EED3-4EED-937F-9BB51643F897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1606550" y="750381"/>
+          <a:ext cx="1307876" cy="1586148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46579</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="974519" cy="1565990"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF68BE5-7424-4279-9B29-0E454C3A1C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2311400" y="757779"/>
+          <a:ext cx="974519" cy="1565990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="1610139"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B5EE2A-78EE-4D32-81A4-5DEB02C8EABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416050" y="933450"/>
+          <a:ext cx="1543050" cy="1610139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>239497</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1484208" cy="1749048"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F50B14-4492-49E4-A37A-56FDDBD634D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1560297" y="1225550"/>
+          <a:ext cx="1484208" cy="1749048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1831493" cy="1537550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459D48D8-F3B7-45A5-BB24-F4A97F8FDFF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="1294145"/>
+          <a:ext cx="1831493" cy="1537550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>404253</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2003090" cy="919568"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69F2F62-41A3-4BED-A4EC-67E159AC0E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="1420253"/>
+          <a:ext cx="2003090" cy="919568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2428,6 +3105,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2463,6 +3157,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2638,20 +3349,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2665,74 +3376,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="19"/>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="20"/>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5"/>
     </row>
   </sheetData>
@@ -2751,7 +3462,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2:D5" location="草莓香蕉!A1" display="草莓香蕉!A1"/>
+    <hyperlink ref="D2:D5" location="草莓香蕉!A1" display="草莓香蕉!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2759,98 +3470,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="M16:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:Q24"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="16" spans="13:17">
-      <c r="M16" s="16" t="s">
+    <row r="16" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="13:17">
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="13:17">
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="13:17">
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="13:17">
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="13:17">
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="13:17">
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="13:17">
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="13:17">
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M16:Q24"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,16 +3570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="40" spans="6:6">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>7</v>
       </c>
@@ -2882,14 +3592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2898,17 +3608,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D369D3F6-9DEF-4C9A-AAF2-8CEEAE48D034}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="24" customWidth="1"/>
+    <col min="5" max="19" width="25.7265625" style="24" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="149" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="134.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="157" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="129.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="67" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/1document/Art Request.xlsx
+++ b/1document/Art Request.xlsx
@@ -404,27 +404,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,11 +413,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,6 +430,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2666,73 +2666,73 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5"/>
     </row>
   </sheetData>
@@ -2769,69 +2769,69 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="16" spans="13:17">
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="13:17">
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="13:17">
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="13:17">
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="13:17">
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="13:17">
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="13:17">
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="13:17">
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
     </row>
     <row r="24" spans="13:17">
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2886,7 +2886,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
